--- a/Experimental_Data/Rate_Comparison_O2_Hydride_Formation.xlsx
+++ b/Experimental_Data/Rate_Comparison_O2_Hydride_Formation.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11108"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jacob/Documents/Water_Splitting/Two_Photon_Water_Splitting/Experimental_Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11491C75-4789-884E-8AC9-879990D35F2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="0" windowWidth="23800" windowHeight="13560" tabRatio="500"/>
+    <workbookView xWindow="8540" yWindow="1160" windowWidth="23800" windowHeight="13560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>O2 Reactor</t>
   </si>
@@ -79,12 +85,21 @@
   </si>
   <si>
     <t>Initial Rate of Formation / umol l^-1 s^-1 (stoichiometry adjusted, area adjusted, flux adjusted)</t>
+  </si>
+  <si>
+    <t>Initial rate (mol/s)</t>
+  </si>
+  <si>
+    <t>Initial rate (molecules/s)</t>
+  </si>
+  <si>
+    <t>Quantum Yield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -132,6 +147,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -456,16 +479,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -473,7 +496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -484,7 +507,7 @@
         <v>0.42399999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -495,7 +518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -508,7 +531,7 @@
         <v>1.696</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -519,7 +542,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -531,7 +554,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -543,7 +566,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -556,7 +579,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -569,7 +592,7 @@
         <v>2.9481132075471702E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -580,7 +603,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -592,7 +615,7 @@
         <v>0.26883910386965376</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -603,7 +626,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -615,7 +638,7 @@
         <v>173.40122199592668</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -628,7 +651,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -639,7 +662,7 @@
         <v>2.61</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -651,7 +674,7 @@
         <v>2.0881593803864622E+18</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -663,7 +686,7 @@
         <v>2.5025307609595813</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
@@ -676,12 +699,44 @@
         <v>1.1780527350707701E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="C25" s="1"/>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1">
+        <f>(B22/1000000)*(B2/2)^2*PI()*B3*(1/1000)</f>
+        <v>3.7070793312359571E-12</v>
+      </c>
+      <c r="C24" s="1">
+        <f>(C22/1000000)*(C2/2)^2*PI()*C3*(1/1000)</f>
+        <v>6.6534411179990408E-12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="1">
+        <f>B24*6.022E+23</f>
+        <v>2232403173270.2935</v>
+      </c>
+      <c r="C25" s="1">
+        <f>C24*6.022E+23</f>
+        <v>4006702241259.0225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="1">
+        <f>(B25/B19)*100</f>
+        <v>1.6912145252047676E-4</v>
+      </c>
+      <c r="C26" s="1">
+        <f>(C25/C19)*100</f>
+        <v>1.9187722349610543E-4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
